--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="87">
   <si>
     <t>Doi</t>
   </si>
@@ -330,6 +330,90 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,    Iraj%Sedighi%NULL%1,    Zohreh%Shalchi%NULL%1,    Ghazal%Sami%NULL%1,    Borhan%Moradveisi%NULL%1,    Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Recently, the World Health Organization has declared the coronavirus disease 2019 (COVID-19) outbreak a public health emergency of international concern.
+ So far, however, limited data are available for children.
+ Therefore, we aimed to investigate the clinical and chest CT imaging characteristics of COVID-19 in preschool children.
+Methods
+id="Par2"&gt;From January 26, 2020 to February 20, 2020, the clinical and initial chest CT imaging data of eight preschool children with laboratory-confirmed COVID-19 from two hospitals were retrospectively collected.
+ The chest CT imaging characteristics, including the distribution, shape, and density of lesions, and the pleural effusion, pleural changes, and enlarged lymph nodes were evaluated.
+Results
+id="Par3"&gt;Two cases (25%) were classified as mild type, and they showed no obvious abnormal CT findings or minimal pleural thickening on the right side.
+ Five cases (62.5%) were classified as moderate type.
+ Among these patients, one case showed consolidation located in the subpleural region of the right upper lobe, with thickening in the adjacent pleura; one case showed multiple consolidation and ground-glass opacities with blurry margins; one case displayed bronchial pneumonia-like changes in the left upper lobe; and two cases displayed asthmatic bronchitis-like changes.
+ One case (12.5%) was classified as critical type and showed bronchial pneumonia-like changes in the bilateral lungs, presenting blurred and messy bilateral lung markings and multiple patchy shadows scattered along the lung markings with blurry margins.
+Conclusions
+id="Par4"&gt;The chest CT findings of COVID-19 in preschool children are atypical and various.
+ Accurate diagnosis requires a comprehensive evaluation of epidemiological, clinical, laboratory and CT imaging data.
+</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,     Jianghui%Cao%NULL%1,     Xiaolong%Zhang%NULL%1,     Guangzhi%Liu%NULL%1,     Xiaxia%Wu%NULL%1,     Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Recently, the World Health Organization has declared the coronavirus disease 2019 (COVID-19) outbreak a public health emergency of international concern.
+ So far, however, limited data are available for children.
+ Therefore, we aimed to investigate the clinical and chest CT imaging characteristics of COVID-19 in preschool children.
+Methods
+From January 26, 2020 to February 20, 2020, the clinical and initial chest CT imaging data of eight preschool children with laboratory-confirmed COVID-19 from two hospitals were retrospectively collected.
+ The chest CT imaging characteristics, including the distribution, shape, and density of lesions, and the pleural effusion, pleural changes, and enlarged lymph nodes were evaluated.
+Results
+id="Par3"&gt;Two cases (25%) were classified as mild type, and they showed no obvious abnormal CT findings or minimal pleural thickening on the right side.
+ Five cases (62.5%) were classified as moderate type.
+ Among these patients, one case showed consolidation located in the subpleural region of the right upper lobe, with thickening in the adjacent pleura; one case showed multiple consolidation and ground-glass opacities with blurry margins; one case displayed bronchial pneumonia-like changes in the left upper lobe; and two cases displayed asthmatic bronchitis-like changes.
+ One case (12.5%) was classified as critical type and showed bronchial pneumonia-like changes in the bilateral lungs, presenting blurred and messy bilateral lung markings and multiple patchy shadows scattered along the lung markings with blurry margins.
+Conclusions
+id="Par4"&gt;The chest CT findings of COVID-19 in preschool children are atypical and various.
+ Accurate diagnosis requires a comprehensive evaluation of epidemiological, clinical, laboratory and CT imaging data.
+</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,      Jianghui%Cao%NULL%1,      Xiaolong%Zhang%NULL%1,      Guangzhi%Liu%NULL%1,      Xiaxia%Wu%NULL%1,      Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Recently, the World Health Organization has declared the coronavirus disease 2019 (COVID-19) outbreak a public health emergency of international concern.
+ So far, however, limited data are available for children.
+ Therefore, we aimed to investigate the clinical and chest CT imaging characteristics of COVID-19 in preschool children.
+Methods
+From January 26, 2020 to February 20, 2020, the clinical and initial chest CT imaging data of eight preschool children with laboratory-confirmed COVID-19 from two hospitals were retrospectively collected.
+ The chest CT imaging characteristics, including the distribution, shape, and density of lesions, and the pleural effusion, pleural changes, and enlarged lymph nodes were evaluated.
+Results
+Two cases (25%) were classified as mild type, and they showed no obvious abnormal CT findings or minimal pleural thickening on the right side.
+ Five cases (62.5%) were classified as moderate type.
+ Among these patients, one case showed consolidation located in the subpleural region of the right upper lobe, with thickening in the adjacent pleura; one case showed multiple consolidation and ground-glass opacities with blurry margins; one case displayed bronchial pneumonia-like changes in the left upper lobe; and two cases displayed asthmatic bronchitis-like changes.
+ One case (12.5%) was classified as critical type and showed bronchial pneumonia-like changes in the bilateral lungs, presenting blurred and messy bilateral lung markings and multiple patchy shadows scattered along the lung markings with blurry margins.
+Conclusions
+id="Par4"&gt;The chest CT findings of COVID-19 in preschool children are atypical and various.
+ Accurate diagnosis requires a comprehensive evaluation of epidemiological, clinical, laboratory and CT imaging data.
+</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,       Jianghui%Cao%NULL%1,       Xiaolong%Zhang%NULL%1,       Guangzhi%Liu%NULL%1,       Xiaxia%Wu%NULL%1,       Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Recently, the World Health Organization has declared the coronavirus disease 2019 (COVID-19) outbreak a public health emergency of international concern.
+ So far, however, limited data are available for children.
+ Therefore, we aimed to investigate the clinical and chest CT imaging characteristics of COVID-19 in preschool children.
+Methods
+From January 26, 2020 to February 20, 2020, the clinical and initial chest CT imaging data of eight preschool children with laboratory-confirmed COVID-19 from two hospitals were retrospectively collected.
+ The chest CT imaging characteristics, including the distribution, shape, and density of lesions, and the pleural effusion, pleural changes, and enlarged lymph nodes were evaluated.
+Results
+Two cases (25%) were classified as mild type, and they showed no obvious abnormal CT findings or minimal pleural thickening on the right side.
+ Five cases (62.5%) were classified as moderate type.
+ Among these patients, one case showed consolidation located in the subpleural region of the right upper lobe, with thickening in the adjacent pleura; one case showed multiple consolidation and ground-glass opacities with blurry margins; one case displayed bronchial pneumonia-like changes in the left upper lobe; and two cases displayed asthmatic bronchitis-like changes.
+ One case (12.5%) was classified as critical type and showed bronchial pneumonia-like changes in the bilateral lungs, presenting blurred and messy bilateral lung markings and multiple patchy shadows scattered along the lung markings with blurry margins.
+Conclusions
+The chest CT findings of COVID-19 in preschool children are atypical and various.
+ Accurate diagnosis requires a comprehensive evaluation of epidemiological, clinical, laboratory and CT imaging data.
+</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,        Jianghui%Cao%NULL%1,        Xiaolong%Zhang%NULL%1,        Guangzhi%Liu%NULL%1,        Xiaxia%Wu%NULL%1,        Baolin%Wu%WBLlin0129@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -735,10 +819,10 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="79">
   <si>
     <t>Doi</t>
   </si>
@@ -330,90 +330,6 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,    Iraj%Sedighi%NULL%1,    Zohreh%Shalchi%NULL%1,    Ghazal%Sami%NULL%1,    Borhan%Moradveisi%NULL%1,    Soheila%Nahidi%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Recently, the World Health Organization has declared the coronavirus disease 2019 (COVID-19) outbreak a public health emergency of international concern.
- So far, however, limited data are available for children.
- Therefore, we aimed to investigate the clinical and chest CT imaging characteristics of COVID-19 in preschool children.
-Methods
-id="Par2"&gt;From January 26, 2020 to February 20, 2020, the clinical and initial chest CT imaging data of eight preschool children with laboratory-confirmed COVID-19 from two hospitals were retrospectively collected.
- The chest CT imaging characteristics, including the distribution, shape, and density of lesions, and the pleural effusion, pleural changes, and enlarged lymph nodes were evaluated.
-Results
-id="Par3"&gt;Two cases (25%) were classified as mild type, and they showed no obvious abnormal CT findings or minimal pleural thickening on the right side.
- Five cases (62.5%) were classified as moderate type.
- Among these patients, one case showed consolidation located in the subpleural region of the right upper lobe, with thickening in the adjacent pleura; one case showed multiple consolidation and ground-glass opacities with blurry margins; one case displayed bronchial pneumonia-like changes in the left upper lobe; and two cases displayed asthmatic bronchitis-like changes.
- One case (12.5%) was classified as critical type and showed bronchial pneumonia-like changes in the bilateral lungs, presenting blurred and messy bilateral lung markings and multiple patchy shadows scattered along the lung markings with blurry margins.
-Conclusions
-id="Par4"&gt;The chest CT findings of COVID-19 in preschool children are atypical and various.
- Accurate diagnosis requires a comprehensive evaluation of epidemiological, clinical, laboratory and CT imaging data.
-</t>
-  </si>
-  <si>
-    <t>[Yang%Li%NULL%0,     Jianghui%Cao%NULL%1,     Xiaolong%Zhang%NULL%1,     Guangzhi%Liu%NULL%1,     Xiaxia%Wu%NULL%1,     Baolin%Wu%WBLlin0129@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Recently, the World Health Organization has declared the coronavirus disease 2019 (COVID-19) outbreak a public health emergency of international concern.
- So far, however, limited data are available for children.
- Therefore, we aimed to investigate the clinical and chest CT imaging characteristics of COVID-19 in preschool children.
-Methods
-From January 26, 2020 to February 20, 2020, the clinical and initial chest CT imaging data of eight preschool children with laboratory-confirmed COVID-19 from two hospitals were retrospectively collected.
- The chest CT imaging characteristics, including the distribution, shape, and density of lesions, and the pleural effusion, pleural changes, and enlarged lymph nodes were evaluated.
-Results
-id="Par3"&gt;Two cases (25%) were classified as mild type, and they showed no obvious abnormal CT findings or minimal pleural thickening on the right side.
- Five cases (62.5%) were classified as moderate type.
- Among these patients, one case showed consolidation located in the subpleural region of the right upper lobe, with thickening in the adjacent pleura; one case showed multiple consolidation and ground-glass opacities with blurry margins; one case displayed bronchial pneumonia-like changes in the left upper lobe; and two cases displayed asthmatic bronchitis-like changes.
- One case (12.5%) was classified as critical type and showed bronchial pneumonia-like changes in the bilateral lungs, presenting blurred and messy bilateral lung markings and multiple patchy shadows scattered along the lung markings with blurry margins.
-Conclusions
-id="Par4"&gt;The chest CT findings of COVID-19 in preschool children are atypical and various.
- Accurate diagnosis requires a comprehensive evaluation of epidemiological, clinical, laboratory and CT imaging data.
-</t>
-  </si>
-  <si>
-    <t>[Yang%Li%NULL%0,      Jianghui%Cao%NULL%1,      Xiaolong%Zhang%NULL%1,      Guangzhi%Liu%NULL%1,      Xiaxia%Wu%NULL%1,      Baolin%Wu%WBLlin0129@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Recently, the World Health Organization has declared the coronavirus disease 2019 (COVID-19) outbreak a public health emergency of international concern.
- So far, however, limited data are available for children.
- Therefore, we aimed to investigate the clinical and chest CT imaging characteristics of COVID-19 in preschool children.
-Methods
-From January 26, 2020 to February 20, 2020, the clinical and initial chest CT imaging data of eight preschool children with laboratory-confirmed COVID-19 from two hospitals were retrospectively collected.
- The chest CT imaging characteristics, including the distribution, shape, and density of lesions, and the pleural effusion, pleural changes, and enlarged lymph nodes were evaluated.
-Results
-Two cases (25%) were classified as mild type, and they showed no obvious abnormal CT findings or minimal pleural thickening on the right side.
- Five cases (62.5%) were classified as moderate type.
- Among these patients, one case showed consolidation located in the subpleural region of the right upper lobe, with thickening in the adjacent pleura; one case showed multiple consolidation and ground-glass opacities with blurry margins; one case displayed bronchial pneumonia-like changes in the left upper lobe; and two cases displayed asthmatic bronchitis-like changes.
- One case (12.5%) was classified as critical type and showed bronchial pneumonia-like changes in the bilateral lungs, presenting blurred and messy bilateral lung markings and multiple patchy shadows scattered along the lung markings with blurry margins.
-Conclusions
-id="Par4"&gt;The chest CT findings of COVID-19 in preschool children are atypical and various.
- Accurate diagnosis requires a comprehensive evaluation of epidemiological, clinical, laboratory and CT imaging data.
-</t>
-  </si>
-  <si>
-    <t>[Yang%Li%NULL%0,       Jianghui%Cao%NULL%1,       Xiaolong%Zhang%NULL%1,       Guangzhi%Liu%NULL%1,       Xiaxia%Wu%NULL%1,       Baolin%Wu%WBLlin0129@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Recently, the World Health Organization has declared the coronavirus disease 2019 (COVID-19) outbreak a public health emergency of international concern.
- So far, however, limited data are available for children.
- Therefore, we aimed to investigate the clinical and chest CT imaging characteristics of COVID-19 in preschool children.
-Methods
-From January 26, 2020 to February 20, 2020, the clinical and initial chest CT imaging data of eight preschool children with laboratory-confirmed COVID-19 from two hospitals were retrospectively collected.
- The chest CT imaging characteristics, including the distribution, shape, and density of lesions, and the pleural effusion, pleural changes, and enlarged lymph nodes were evaluated.
-Results
-Two cases (25%) were classified as mild type, and they showed no obvious abnormal CT findings or minimal pleural thickening on the right side.
- Five cases (62.5%) were classified as moderate type.
- Among these patients, one case showed consolidation located in the subpleural region of the right upper lobe, with thickening in the adjacent pleura; one case showed multiple consolidation and ground-glass opacities with blurry margins; one case displayed bronchial pneumonia-like changes in the left upper lobe; and two cases displayed asthmatic bronchitis-like changes.
- One case (12.5%) was classified as critical type and showed bronchial pneumonia-like changes in the bilateral lungs, presenting blurred and messy bilateral lung markings and multiple patchy shadows scattered along the lung markings with blurry margins.
-Conclusions
-The chest CT findings of COVID-19 in preschool children are atypical and various.
- Accurate diagnosis requires a comprehensive evaluation of epidemiological, clinical, laboratory and CT imaging data.
-</t>
-  </si>
-  <si>
-    <t>[Yang%Li%NULL%0,        Jianghui%Cao%NULL%1,        Xiaolong%Zhang%NULL%1,        Guangzhi%Liu%NULL%1,        Xiaxia%Wu%NULL%1,        Baolin%Wu%WBLlin0129@163.com%1]</t>
   </si>
 </sst>
 </file>
@@ -819,10 +735,10 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="91">
   <si>
     <t>Doi</t>
   </si>
@@ -330,6 +330,42 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,    Iraj%Sedighi%NULL%1,    Zohreh%Shalchi%NULL%1,    Ghazal%Sami%NULL%1,    Borhan%Moradveisi%NULL%1,    Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,     Junhua%Li%m13797631535@163.com%1,     Ning%Zou%xdzning0215@163.com%1,     Wenhe%Guan%guanwenhe@126.com%1,     Jiali%Pan%cmu107819@163.com%1,     Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,     Jian%Wang%NULL%1,     Rui%Huang%NULL%1,     Longgen%Liu%NULL%1,     Haiyan%Zhao%NULL%1,     Chao%Wu%dr.wu@nju.edu.cn%0,     Chuanwu%Zhu%zhuchw@126.com%2,     Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,     Zongbiao%Song%NULL%1,     Kaihu%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,     Jianghui%Cao%NULL%1,     Xiaolong%Zhang%NULL%1,     Guangzhi%Liu%NULL%1,     Xiaxia%Wu%NULL%1,     Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,     H.%Wen%NULL%1,     D.%Rong%NULL%1,     Z.%Zhou%NULL%1,     H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,     Dan%Xu%NULL%0,     Dan%Xu%NULL%0,     Chen%Xia%NULL%2,     Chen%Xia%NULL%0,     Shaokang%Wang%NULL%2,     Shaokang%Wang%NULL%0,     Minhua%Yu%NULL%2,     Minhua%Yu%NULL%0,     Haibo%Xu%NULL%2,     Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,     Iraj%Sedighi%NULL%1,     Zohreh%Shalchi%NULL%1,     Ghazal%Sami%NULL%1,     Borhan%Moradveisi%NULL%1,     Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -645,6 +681,9 @@
       <c r="H1" t="s">
         <v>21</v>
       </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -660,7 +699,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -670,6 +709,9 @@
       </c>
       <c r="H2" t="s">
         <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -686,7 +728,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -696,6 +738,9 @@
       </c>
       <c r="H3" t="s">
         <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -712,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -722,6 +767,9 @@
       </c>
       <c r="H4" t="s">
         <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -738,7 +786,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -748,6 +796,9 @@
       </c>
       <c r="H5" t="s">
         <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -775,6 +826,9 @@
       <c r="H6" t="s">
         <v>43</v>
       </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -790,7 +844,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -800,6 +854,9 @@
       </c>
       <c r="H7" t="s">
         <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -816,7 +873,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -826,6 +883,9 @@
       </c>
       <c r="H8" t="s">
         <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -842,7 +902,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -852,6 +912,9 @@
       </c>
       <c r="H9" t="s">
         <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="112">
   <si>
     <t>Doi</t>
   </si>
@@ -366,6 +366,69 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,     Iraj%Sedighi%NULL%1,     Zohreh%Shalchi%NULL%1,     Ghazal%Sami%NULL%1,     Borhan%Moradveisi%NULL%1,     Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,      Junhua%Li%m13797631535@163.com%1,      Ning%Zou%xdzning0215@163.com%1,      Wenhe%Guan%guanwenhe@126.com%1,      Jiali%Pan%cmu107819@163.com%1,      Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,      Jian%Wang%NULL%0,      Rui%Huang%NULL%1,      Longgen%Liu%NULL%1,      Haiyan%Zhao%NULL%1,      Chao%Wu%dr.wu@nju.edu.cn%0,      Chuanwu%Zhu%zhuchw@126.com%2,      Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,      Zongbiao%Song%NULL%1,      Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,      Jianghui%Cao%NULL%1,      Xiaolong%Zhang%NULL%1,      Guangzhi%Liu%NULL%1,      Xiaxia%Wu%NULL%1,      Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,      H.%Wen%NULL%1,      D.%Rong%NULL%1,      Z.%Zhou%NULL%1,      H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,      Dan%Xu%NULL%0,      Dan%Xu%NULL%0,      Chen%Xia%NULL%2,      Chen%Xia%NULL%0,      Shaokang%Wang%NULL%2,      Shaokang%Wang%NULL%0,      Minhua%Yu%NULL%2,      Minhua%Yu%NULL%0,      Haibo%Xu%NULL%2,      Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,      Iraj%Sedighi%NULL%1,      Zohreh%Shalchi%NULL%1,      Ghazal%Sami%NULL%1,      Borhan%Moradveisi%NULL%1,      Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,       Junhua%Li%m13797631535@163.com%1,       Ning%Zou%xdzning0215@163.com%1,       Wenhe%Guan%guanwenhe@126.com%1,       Jiali%Pan%cmu107819@163.com%1,       Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,       Jian%Wang%NULL%0,       Rui%Huang%NULL%1,       Longgen%Liu%NULL%1,       Haiyan%Zhao%NULL%1,       Chao%Wu%dr.wu@nju.edu.cn%0,       Chuanwu%Zhu%zhuchw@126.com%2,       Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,       Zongbiao%Song%NULL%1,       Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,       Jianghui%Cao%NULL%1,       Xiaolong%Zhang%NULL%1,       Guangzhi%Liu%NULL%1,       Xiaxia%Wu%NULL%1,       Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,       H.%Wen%NULL%1,       D.%Rong%NULL%1,       Z.%Zhou%NULL%1,       H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,       Dan%Xu%NULL%0,       Dan%Xu%NULL%0,       Chen%Xia%NULL%2,       Chen%Xia%NULL%0,       Shaokang%Wang%NULL%2,       Shaokang%Wang%NULL%0,       Minhua%Yu%NULL%2,       Minhua%Yu%NULL%0,       Haibo%Xu%NULL%2,       Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,       Iraj%Sedighi%NULL%1,       Zohreh%Shalchi%NULL%1,       Ghazal%Sami%NULL%1,       Borhan%Moradveisi%NULL%1,       Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,        Junhua%Li%m13797631535@163.com%1,        Ning%Zou%xdzning0215@163.com%1,        Wenhe%Guan%guanwenhe@126.com%1,        Jiali%Pan%cmu107819@163.com%1,        Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,        Jian%Wang%NULL%0,        Rui%Huang%NULL%1,        Longgen%Liu%NULL%1,        Haiyan%Zhao%NULL%1,        Chao%Wu%dr.wu@nju.edu.cn%0,        Chuanwu%Zhu%zhuchw@126.com%2,        Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,        Zongbiao%Song%NULL%1,        Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,        Jianghui%Cao%NULL%1,        Xiaolong%Zhang%NULL%1,        Guangzhi%Liu%NULL%1,        Xiaxia%Wu%NULL%1,        Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,        H.%Wen%NULL%1,        D.%Rong%NULL%1,        Z.%Zhou%NULL%1,        H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,        Dan%Xu%NULL%0,        Dan%Xu%NULL%0,        Chen%Xia%NULL%2,        Chen%Xia%NULL%0,        Shaokang%Wang%NULL%2,        Shaokang%Wang%NULL%0,        Minhua%Yu%NULL%2,        Minhua%Yu%NULL%0,        Haibo%Xu%NULL%2,        Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,        Iraj%Sedighi%NULL%1,        Zohreh%Shalchi%NULL%1,        Ghazal%Sami%NULL%1,        Borhan%Moradveisi%NULL%1,        Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -699,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -728,7 +791,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -757,7 +820,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -786,7 +849,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -844,7 +907,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -873,7 +936,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -902,7 +965,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="131">
   <si>
     <t>Doi</t>
   </si>
@@ -429,6 +429,63 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,        Iraj%Sedighi%NULL%1,        Zohreh%Shalchi%NULL%1,        Ghazal%Sami%NULL%1,        Borhan%Moradveisi%NULL%1,        Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,         Junhua%Li%m13797631535@163.com%1,         Ning%Zou%xdzning0215@163.com%1,         Wenhe%Guan%guanwenhe@126.com%1,         Jiali%Pan%cmu107819@163.com%1,         Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,         Jian%Wang%NULL%0,         Rui%Huang%NULL%1,         Longgen%Liu%NULL%1,         Haiyan%Zhao%NULL%1,         Chao%Wu%dr.wu@nju.edu.cn%0,         Chuanwu%Zhu%zhuchw@126.com%2,         Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,         Zongbiao%Song%NULL%1,         Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,         Jianghui%Cao%NULL%1,         Xiaolong%Zhang%NULL%1,         Guangzhi%Liu%NULL%1,         Xiaxia%Wu%NULL%1,         Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>"CT Features of Coronavirus Disease (COVID-19) in 30 Pediatric Patients"</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1, Bin%Lin%xref no email%1, Adam%Bernheim%xref no email%0, Michael%Chung%xref no email%0, Yuantong%Gao%xref no email%1, Zongyu%Xie%xref no email%1, Tongtong%Zhao%xref no email%1, Junli%Xia%xref no email%1, Xueyan%Mei%xref no email%1, Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,         H.%Wen%NULL%1,         D.%Rong%NULL%1,         Z.%Zhou%NULL%1,         H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%2,         Dan%Xu%NULL%0,         Dan%Xu%NULL%0,         Chen%Xia%NULL%2,         Chen%Xia%NULL%0,         Shaokang%Wang%NULL%2,         Shaokang%Wang%NULL%0,         Minhua%Yu%NULL%2,         Minhua%Yu%NULL%0,         Haibo%Xu%NULL%0,         Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,         Iraj%Sedighi%NULL%1,         Zohreh%Shalchi%NULL%1,         Ghazal%Sami%NULL%1,         Borhan%Moradveisi%NULL%1,         Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,          Junhua%Li%m13797631535@163.com%1,          Ning%Zou%xdzning0215@163.com%1,          Wenhe%Guan%guanwenhe@126.com%1,          Jiali%Pan%cmu107819@163.com%1,          Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,          Jian%Wang%NULL%0,          Rui%Huang%NULL%1,          Longgen%Liu%NULL%1,          Haiyan%Zhao%NULL%1,          Chao%Wu%dr.wu@nju.edu.cn%0,          Chuanwu%Zhu%zhuchw@126.com%2,          Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,          Zongbiao%Song%NULL%1,          Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,          Jianghui%Cao%NULL%1,          Xiaolong%Zhang%NULL%1,          Guangzhi%Liu%NULL%1,          Xiaxia%Wu%NULL%1,          Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1,  Bin%Lin%xref no email%1,  Adam%Bernheim%xref no email%1,  Michael%Chung%xref no email%1,  Yuantong%Gao%xref no email%1,  Zongyu%Xie%xref no email%1,  Tongtong%Zhao%xref no email%1,  Junli%Xia%xref no email%1,  Xueyan%Mei%xref no email%1,  Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,          H.%Wen%NULL%1,          D.%Rong%NULL%1,          Z.%Zhou%NULL%1,          H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,          Dan%Xu%NULL%0,          Dan%Xu%NULL%0,          Chen%Xia%NULL%2,          Chen%Xia%NULL%0,          Shaokang%Wang%NULL%2,          Shaokang%Wang%NULL%0,          Minhua%Yu%NULL%2,          Minhua%Yu%NULL%0,          Haibo%Xu%NULL%0,          Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,          Iraj%Sedighi%NULL%1,          Zohreh%Shalchi%NULL%1,          Ghazal%Sami%NULL%1,          Borhan%Moradveisi%NULL%1,          Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -762,7 +819,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -791,7 +848,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -820,7 +877,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -849,7 +906,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -872,22 +929,22 @@
         <v>43952.0</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
         <v>87</v>
@@ -907,7 +964,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -936,7 +993,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -965,7 +1022,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="147">
   <si>
     <t>Doi</t>
   </si>
@@ -486,6 +486,54 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,          Iraj%Sedighi%NULL%1,          Zohreh%Shalchi%NULL%1,          Ghazal%Sami%NULL%1,          Borhan%Moradveisi%NULL%1,          Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,           Junhua%Li%m13797631535@163.com%1,           Ning%Zou%xdzning0215@163.com%1,           Wenhe%Guan%guanwenhe@126.com%1,           Jiali%Pan%cmu107819@163.com%1,           Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,           Jian%Wang%NULL%0,           Rui%Huang%NULL%1,           Longgen%Liu%NULL%1,           Haiyan%Zhao%NULL%1,           Chao%Wu%dr.wu@nju.edu.cn%0,           Chuanwu%Zhu%zhuchw@126.com%2,           Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,           Zongbiao%Song%NULL%1,           Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,           Jianghui%Cao%NULL%1,           Xiaolong%Zhang%NULL%1,           Guangzhi%Liu%NULL%1,           Xiaxia%Wu%NULL%1,           Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1,   Bin%Lin%xref no email%1,   Adam%Bernheim%xref no email%1,   Michael%Chung%xref no email%1,   Yuantong%Gao%xref no email%1,   Zongyu%Xie%xref no email%1,   Tongtong%Zhao%xref no email%1,   Junli%Xia%xref no email%1,   Xueyan%Mei%xref no email%1,   Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,           H.%Wen%NULL%1,           D.%Rong%NULL%1,           Z.%Zhou%NULL%1,           H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,           Dan%Xu%NULL%0,           Dan%Xu%NULL%0,           Chen%Xia%NULL%2,           Chen%Xia%NULL%0,           Shaokang%Wang%NULL%2,           Shaokang%Wang%NULL%0,           Minhua%Yu%NULL%2,           Minhua%Yu%NULL%0,           Haibo%Xu%NULL%0,           Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,           Iraj%Sedighi%NULL%1,           Zohreh%Shalchi%NULL%1,           Ghazal%Sami%NULL%1,           Borhan%Moradveisi%NULL%1,           Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,            Junhua%Li%m13797631535@163.com%1,            Ning%Zou%xdzning0215@163.com%1,            Wenhe%Guan%guanwenhe@126.com%1,            Jiali%Pan%cmu107819@163.com%1,            Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,            Jian%Wang%NULL%0,            Rui%Huang%NULL%1,            Longgen%Liu%NULL%1,            Haiyan%Zhao%NULL%1,            Chao%Wu%dr.wu@nju.edu.cn%0,            Chuanwu%Zhu%zhuchw@126.com%2,            Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,            Zongbiao%Song%NULL%1,            Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,            Jianghui%Cao%NULL%1,            Xiaolong%Zhang%NULL%1,            Guangzhi%Liu%NULL%1,            Xiaxia%Wu%NULL%1,            Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1,    Bin%Lin%xref no email%1,    Adam%Bernheim%xref no email%1,    Michael%Chung%xref no email%1,    Yuantong%Gao%xref no email%1,    Zongyu%Xie%xref no email%1,    Tongtong%Zhao%xref no email%1,    Junli%Xia%xref no email%1,    Xueyan%Mei%xref no email%1,    Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,            H.%Wen%NULL%1,            D.%Rong%NULL%1,            Z.%Zhou%NULL%1,            H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,            Dan%Xu%NULL%0,            Dan%Xu%NULL%0,            Chen%Xia%NULL%2,            Chen%Xia%NULL%0,            Shaokang%Wang%NULL%2,            Shaokang%Wang%NULL%0,            Minhua%Yu%NULL%2,            Minhua%Yu%NULL%0,            Haibo%Xu%NULL%0,            Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,            Iraj%Sedighi%NULL%1,            Zohreh%Shalchi%NULL%1,            Ghazal%Sami%NULL%1,            Borhan%Moradveisi%NULL%1,            Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -819,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -848,7 +896,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -877,7 +925,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -906,7 +954,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -935,7 +983,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -964,7 +1012,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -993,7 +1041,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1022,7 +1070,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="164">
   <si>
     <t>Doi</t>
   </si>
@@ -534,6 +534,72 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,            Iraj%Sedighi%NULL%1,            Zohreh%Shalchi%NULL%1,            Ghazal%Sami%NULL%1,            Borhan%Moradveisi%NULL%1,            Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,             Junhua%Li%m13797631535@163.com%1,             Ning%Zou%xdzning0215@163.com%1,             Wenhe%Guan%guanwenhe@126.com%1,             Jiali%Pan%cmu107819@163.com%1,             Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,             Jian%Wang%NULL%0,             Rui%Huang%NULL%1,             Longgen%Liu%NULL%1,             Haiyan%Zhao%NULL%1,             Chao%Wu%dr.wu@nju.edu.cn%0,             Chuanwu%Zhu%zhuchw@126.com%2,             Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,             Zongbiao%Song%NULL%1,             Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Recently, the World Health Organization has declared the coronavirus disease 2019 (COVID-19) outbreak a public health emergency of international concern.
+ So far, however, limited data are available for children.
+ Therefore, we aimed to investigate the clinical and chest CT imaging characteristics of COVID-19 in preschool children.
+Methods
+From January 26, 2020 to February 20, 2020, the clinical and initial chest CT imaging data of eight preschool children with laboratory-confirmed COVID-19 from two hospitals were retrospectively collected.
+ The chest CT imaging characteristics, including the distribution, shape, and density of lesions, and the pleural effusion, pleural changes, and enlarged lymph nodes were evaluated.
+Results
+Two cases (25%) were classified as mild type, and they showed no obvious abnormal CT findings or minimal pleural thickening on the right side.
+ Five cases (62.5%) were classified as moderate type.
+ Among these patients, one case showed consolidation located in the subpleural region of the right upper lobe, with thickening in the adjacent pleura; one case showed multiple consolidation and ground-glass opacities with blurry margins; one case displayed bronchial pneumonia-like changes in the left upper lobe; and two cases displayed asthmatic bronchitis-like changes.
+ One case (12.5%) was classified as critical type and showed bronchial pneumonia-like changes in the bilateral lungs, presenting blurred and messy bilateral lung markings and multiple patchy shadows scattered along the lung markings with blurry margins.
+Conclusions
+The chest CT findings of COVID-19 in preschool children are atypical and various.
+ Accurate diagnosis requires a comprehensive evaluation of epidemiological, clinical, laboratory and CT imaging data.
+</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,             Jianghui%Cao%NULL%1,             Xiaolong%Zhang%NULL%1,             Guangzhi%Liu%NULL%1,             Xiaxia%Wu%NULL%1,             Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1,     Bin%Lin%xref no email%1,     Adam%Bernheim%xref no email%1,     Michael%Chung%xref no email%1,     Yuantong%Gao%xref no email%1,     Zongyu%Xie%xref no email%1,     Tongtong%Zhao%xref no email%1,     Junli%Xia%xref no email%1,     Xueyan%Mei%xref no email%1,     Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,             H.%Wen%NULL%1,             D.%Rong%NULL%1,             Z.%Zhou%NULL%1,             H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,             Dan%Xu%NULL%0,             Dan%Xu%NULL%0,             Chen%Xia%NULL%2,             Chen%Xia%NULL%0,             Shaokang%Wang%NULL%2,             Shaokang%Wang%NULL%0,             Minhua%Yu%NULL%2,             Minhua%Yu%NULL%0,             Haibo%Xu%NULL%0,             Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,             Iraj%Sedighi%NULL%1,             Zohreh%Shalchi%NULL%1,             Ghazal%Sami%NULL%1,             Borhan%Moradveisi%NULL%1,             Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,              Junhua%Li%m13797631535@163.com%1,              Ning%Zou%xdzning0215@163.com%1,              Wenhe%Guan%guanwenhe@126.com%1,              Jiali%Pan%cmu107819@163.com%1,              Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,              Jian%Wang%NULL%0,              Rui%Huang%NULL%1,              Longgen%Liu%NULL%1,              Haiyan%Zhao%NULL%1,              Chao%Wu%dr.wu@nju.edu.cn%0,              Chuanwu%Zhu%zhuchw@126.com%2,              Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,              Zongbiao%Song%NULL%1,              Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,              Jianghui%Cao%NULL%1,              Xiaolong%Zhang%NULL%1,              Guangzhi%Liu%NULL%1,              Xiaxia%Wu%NULL%1,              Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1,      Bin%Lin%xref no email%1,      Adam%Bernheim%xref no email%1,      Michael%Chung%xref no email%1,      Yuantong%Gao%xref no email%1,      Zongyu%Xie%xref no email%1,      Tongtong%Zhao%xref no email%1,      Junli%Xia%xref no email%1,      Xueyan%Mei%xref no email%1,      Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,              H.%Wen%NULL%1,              D.%Rong%NULL%1,              Z.%Zhou%NULL%1,              H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,              Dan%Xu%NULL%0,              Dan%Xu%NULL%0,              Chen%Xia%NULL%2,              Chen%Xia%NULL%0,              Shaokang%Wang%NULL%2,              Shaokang%Wang%NULL%0,              Minhua%Yu%NULL%2,              Minhua%Yu%NULL%0,              Haibo%Xu%NULL%0,              Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,              Iraj%Sedighi%NULL%1,              Zohreh%Shalchi%NULL%1,              Ghazal%Sami%NULL%1,              Borhan%Moradveisi%NULL%1,              Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -867,7 +933,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -896,7 +962,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -925,7 +991,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -951,10 +1017,10 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -983,7 +1049,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1012,7 +1078,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -1041,7 +1107,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1070,7 +1136,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="172">
   <si>
     <t>Doi</t>
   </si>
@@ -600,6 +600,30 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,              Iraj%Sedighi%NULL%1,              Zohreh%Shalchi%NULL%1,              Ghazal%Sami%NULL%1,              Borhan%Moradveisi%NULL%1,              Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,               Junhua%Li%m13797631535@163.com%1,               Ning%Zou%xdzning0215@163.com%1,               Wenhe%Guan%guanwenhe@126.com%1,               Jiali%Pan%cmu107819@163.com%1,               Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,               Jian%Wang%NULL%0,               Rui%Huang%NULL%1,               Longgen%Liu%NULL%1,               Haiyan%Zhao%NULL%1,               Chao%Wu%dr.wu@nju.edu.cn%0,               Chuanwu%Zhu%zhuchw@126.com%2,               Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,               Zongbiao%Song%NULL%1,               Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,               Jianghui%Cao%NULL%1,               Xiaolong%Zhang%NULL%1,               Guangzhi%Liu%NULL%1,               Xiaxia%Wu%NULL%1,               Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1,       Bin%Lin%xref no email%1,       Adam%Bernheim%xref no email%1,       Michael%Chung%xref no email%1,       Yuantong%Gao%xref no email%1,       Zongyu%Xie%xref no email%1,       Tongtong%Zhao%xref no email%1,       Junli%Xia%xref no email%1,       Xueyan%Mei%xref no email%1,       Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,               H.%Wen%NULL%1,               D.%Rong%NULL%1,               Z.%Zhou%NULL%1,               H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,               Dan%Xu%NULL%0,               Dan%Xu%NULL%0,               Chen%Xia%NULL%2,               Chen%Xia%NULL%0,               Shaokang%Wang%NULL%2,               Shaokang%Wang%NULL%0,               Minhua%Yu%NULL%2,               Minhua%Yu%NULL%0,               Haibo%Xu%NULL%0,               Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,               Iraj%Sedighi%NULL%1,               Zohreh%Shalchi%NULL%1,               Ghazal%Sami%NULL%1,               Borhan%Moradveisi%NULL%1,               Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -933,7 +957,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -962,7 +986,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -991,7 +1015,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1020,7 +1044,7 @@
         <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1049,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1078,7 +1102,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -1107,7 +1131,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1136,7 +1160,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="180">
   <si>
     <t>Doi</t>
   </si>
@@ -624,6 +624,30 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,               Iraj%Sedighi%NULL%1,               Zohreh%Shalchi%NULL%1,               Ghazal%Sami%NULL%1,               Borhan%Moradveisi%NULL%1,               Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                Junhua%Li%m13797631535@163.com%1,                Ning%Zou%xdzning0215@163.com%1,                Wenhe%Guan%guanwenhe@126.com%1,                Jiali%Pan%cmu107819@163.com%1,                Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                Jian%Wang%NULL%0,                Rui%Huang%NULL%1,                Longgen%Liu%NULL%1,                Haiyan%Zhao%NULL%1,                Chao%Wu%dr.wu@nju.edu.cn%0,                Chuanwu%Zhu%zhuchw@126.com%2,                Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                Zongbiao%Song%NULL%1,                Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                Jianghui%Cao%NULL%1,                Xiaolong%Zhang%NULL%1,                Guangzhi%Liu%NULL%1,                Xiaxia%Wu%NULL%1,                Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1,        Bin%Lin%xref no email%1,        Adam%Bernheim%xref no email%1,        Michael%Chung%xref no email%1,        Yuantong%Gao%xref no email%1,        Zongyu%Xie%xref no email%1,        Tongtong%Zhao%xref no email%1,        Junli%Xia%xref no email%1,        Xueyan%Mei%xref no email%1,        Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                H.%Wen%NULL%1,                D.%Rong%NULL%1,                Z.%Zhou%NULL%1,                H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                Dan%Xu%NULL%0,                Dan%Xu%NULL%0,                Chen%Xia%NULL%2,                Chen%Xia%NULL%0,                Shaokang%Wang%NULL%2,                Shaokang%Wang%NULL%0,                Minhua%Yu%NULL%2,                Minhua%Yu%NULL%0,                Haibo%Xu%NULL%0,                Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                Iraj%Sedighi%NULL%1,                Zohreh%Shalchi%NULL%1,                Ghazal%Sami%NULL%1,                Borhan%Moradveisi%NULL%1,                Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -957,7 +981,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -986,7 +1010,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -1015,7 +1039,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1044,7 +1068,7 @@
         <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1073,7 +1097,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1102,7 +1126,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -1131,7 +1155,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1160,7 +1184,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="196">
   <si>
     <t>Doi</t>
   </si>
@@ -648,6 +648,54 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,                Iraj%Sedighi%NULL%1,                Zohreh%Shalchi%NULL%1,                Ghazal%Sami%NULL%1,                Borhan%Moradveisi%NULL%1,                Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                 Junhua%Li%m13797631535@163.com%1,                 Ning%Zou%xdzning0215@163.com%1,                 Wenhe%Guan%guanwenhe@126.com%1,                 Jiali%Pan%cmu107819@163.com%1,                 Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                 Jian%Wang%NULL%0,                 Rui%Huang%NULL%1,                 Longgen%Liu%NULL%1,                 Haiyan%Zhao%NULL%1,                 Chao%Wu%dr.wu@nju.edu.cn%0,                 Chuanwu%Zhu%zhuchw@126.com%2,                 Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                 Zongbiao%Song%NULL%1,                 Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                 Jianghui%Cao%NULL%1,                 Xiaolong%Zhang%NULL%1,                 Guangzhi%Liu%NULL%1,                 Xiaxia%Wu%NULL%1,                 Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1,         Bin%Lin%xref no email%1,         Adam%Bernheim%xref no email%1,         Michael%Chung%xref no email%1,         Yuantong%Gao%xref no email%1,         Zongyu%Xie%xref no email%1,         Tongtong%Zhao%xref no email%1,         Junli%Xia%xref no email%1,         Xueyan%Mei%xref no email%1,         Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                 H.%Wen%NULL%1,                 D.%Rong%NULL%1,                 Z.%Zhou%NULL%1,                 H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                 Dan%Xu%NULL%0,                 Dan%Xu%NULL%0,                 Chen%Xia%NULL%2,                 Chen%Xia%NULL%0,                 Shaokang%Wang%NULL%2,                 Shaokang%Wang%NULL%0,                 Minhua%Yu%NULL%2,                 Minhua%Yu%NULL%0,                 Haibo%Xu%NULL%0,                 Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                 Iraj%Sedighi%NULL%1,                 Zohreh%Shalchi%NULL%1,                 Ghazal%Sami%NULL%1,                 Borhan%Moradveisi%NULL%1,                 Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                  Junhua%Li%m13797631535@163.com%1,                  Ning%Zou%xdzning0215@163.com%1,                  Wenhe%Guan%guanwenhe@126.com%1,                  Jiali%Pan%cmu107819@163.com%1,                  Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                  Jian%Wang%NULL%0,                  Rui%Huang%NULL%1,                  Longgen%Liu%NULL%1,                  Haiyan%Zhao%NULL%1,                  Chao%Wu%dr.wu@nju.edu.cn%0,                  Chuanwu%Zhu%zhuchw@126.com%2,                  Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                  Zongbiao%Song%NULL%1,                  Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                  Jianghui%Cao%NULL%1,                  Xiaolong%Zhang%NULL%1,                  Guangzhi%Liu%NULL%1,                  Xiaxia%Wu%NULL%1,                  Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1,          Bin%Lin%xref no email%1,          Adam%Bernheim%xref no email%1,          Michael%Chung%xref no email%1,          Yuantong%Gao%xref no email%1,          Zongyu%Xie%xref no email%1,          Tongtong%Zhao%xref no email%1,          Junli%Xia%xref no email%1,          Xueyan%Mei%xref no email%1,          Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                  H.%Wen%NULL%1,                  D.%Rong%NULL%1,                  Z.%Zhou%NULL%1,                  H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                  Dan%Xu%NULL%0,                  Dan%Xu%NULL%0,                  Chen%Xia%NULL%2,                  Chen%Xia%NULL%0,                  Shaokang%Wang%NULL%2,                  Shaokang%Wang%NULL%0,                  Minhua%Yu%NULL%2,                  Minhua%Yu%NULL%0,                  Haibo%Xu%NULL%0,                  Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                  Iraj%Sedighi%NULL%1,                  Zohreh%Shalchi%NULL%1,                  Ghazal%Sami%NULL%1,                  Borhan%Moradveisi%NULL%1,                  Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1029,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1010,7 +1058,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -1039,7 +1087,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1068,7 +1116,7 @@
         <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1097,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1126,7 +1174,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -1155,7 +1203,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1184,7 +1232,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="204">
   <si>
     <t>Doi</t>
   </si>
@@ -696,6 +696,30 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,                  Iraj%Sedighi%NULL%1,                  Zohreh%Shalchi%NULL%1,                  Ghazal%Sami%NULL%1,                  Borhan%Moradveisi%NULL%1,                  Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                   Junhua%Li%m13797631535@163.com%1,                   Ning%Zou%xdzning0215@163.com%1,                   Wenhe%Guan%guanwenhe@126.com%1,                   Jiali%Pan%cmu107819@163.com%1,                   Wei%Xu%tomxu.123@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                   Jian%Wang%NULL%0,                   Rui%Huang%NULL%1,                   Longgen%Liu%NULL%1,                   Haiyan%Zhao%NULL%1,                   Chao%Wu%dr.wu@nju.edu.cn%0,                   Chuanwu%Zhu%zhuchw@126.com%2,                   Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                   Zongbiao%Song%NULL%1,                   Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                   Jianghui%Cao%NULL%1,                   Xiaolong%Zhang%NULL%1,                   Guangzhi%Liu%NULL%1,                   Xiaxia%Wu%NULL%1,                   Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1,           Bin%Lin%xref no email%1,           Adam%Bernheim%xref no email%1,           Michael%Chung%xref no email%1,           Yuantong%Gao%xref no email%1,           Zongyu%Xie%xref no email%1,           Tongtong%Zhao%xref no email%1,           Junli%Xia%xref no email%1,           Xueyan%Mei%xref no email%1,           Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                   H.%Wen%NULL%1,                   D.%Rong%NULL%1,                   Z.%Zhou%NULL%1,                   H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                   Dan%Xu%NULL%0,                   Dan%Xu%NULL%0,                   Chen%Xia%NULL%2,                   Chen%Xia%NULL%0,                   Shaokang%Wang%NULL%2,                   Shaokang%Wang%NULL%0,                   Minhua%Yu%NULL%2,                   Minhua%Yu%NULL%0,                   Haibo%Xu%NULL%0,                   Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                   Iraj%Sedighi%NULL%1,                   Zohreh%Shalchi%NULL%1,                   Ghazal%Sami%NULL%1,                   Borhan%Moradveisi%NULL%1,                   Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1058,7 +1082,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -1087,7 +1111,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1116,7 +1140,7 @@
         <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1145,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1174,7 +1198,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -1203,7 +1227,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1232,7 +1256,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="216">
   <si>
     <t>Doi</t>
   </si>
@@ -720,6 +720,42 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,                   Iraj%Sedighi%NULL%1,                   Zohreh%Shalchi%NULL%1,                   Ghazal%Sami%NULL%1,                   Borhan%Moradveisi%NULL%1,                   Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                    Junhua%Li%m13797631535@163.com%1,                    Ning%Zou%xdzning0215@163.com%1,                    Wenhe%Guan%guanwenhe@126.com%1,                    Jiali%Pan%cmu107819@163.com%1,                    Wei%Xu%tomxu.123@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                    Jian%Wang%NULL%0,                    Rui%Huang%NULL%1,                    Longgen%Liu%NULL%1,                    Haiyan%Zhao%NULL%1,                    Chao%Wu%dr.wu@nju.edu.cn%0,                    Chuanwu%Zhu%zhuchw@126.com%2,                    Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                    Zongbiao%Song%NULL%1,                    Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                    Jianghui%Cao%NULL%1,                    Xiaolong%Zhang%NULL%1,                    Guangzhi%Liu%NULL%1,                    Xiaxia%Wu%NULL%1,                    Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1,            Bin%Lin%xref no email%1,            Adam%Bernheim%xref no email%1,            Michael%Chung%xref no email%1,            Yuantong%Gao%xref no email%1,            Zongyu%Xie%xref no email%1,            Tongtong%Zhao%xref no email%1,            Junli%Xia%xref no email%1,            Xueyan%Mei%xref no email%1,            Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                    H.%Wen%NULL%1,                    D.%Rong%NULL%1,                    Z.%Zhou%NULL%1,                    H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                    Dan%Xu%NULL%0,                    Dan%Xu%NULL%0,                    Chen%Xia%NULL%2,                    Chen%Xia%NULL%0,                    Shaokang%Wang%NULL%2,                    Shaokang%Wang%NULL%0,                    Minhua%Yu%NULL%2,                    Minhua%Yu%NULL%0,                    Haibo%Xu%NULL%0,                    Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                    Iraj%Sedighi%NULL%1,                    Zohreh%Shalchi%NULL%1,                    Ghazal%Sami%NULL%1,                    Borhan%Moradveisi%NULL%1,                    Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1065,7 +1101,7 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
@@ -1082,7 +1118,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -1094,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
@@ -1111,7 +1147,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1123,7 +1159,7 @@
         <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
@@ -1140,7 +1176,7 @@
         <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1152,7 +1188,7 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
@@ -1169,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1181,7 +1217,7 @@
         <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7">
@@ -1198,7 +1234,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -1210,7 +1246,7 @@
         <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
@@ -1227,7 +1263,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1239,7 +1275,7 @@
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9">
@@ -1256,7 +1292,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1268,7 +1304,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="224">
   <si>
     <t>Doi</t>
   </si>
@@ -756,6 +756,30 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,                    Iraj%Sedighi%NULL%1,                    Zohreh%Shalchi%NULL%1,                    Ghazal%Sami%NULL%1,                    Borhan%Moradveisi%NULL%1,                    Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                     Junhua%Li%m13797631535@163.com%1,                     Ning%Zou%xdzning0215@163.com%1,                     Wenhe%Guan%guanwenhe@126.com%1,                     Jiali%Pan%cmu107819@163.com%1,                     Wei%Xu%tomxu.123@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                     Jian%Wang%NULL%0,                     Rui%Huang%NULL%1,                     Longgen%Liu%NULL%1,                     Haiyan%Zhao%NULL%1,                     Chao%Wu%dr.wu@nju.edu.cn%0,                     Chuanwu%Zhu%zhuchw@126.com%2,                     Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                     Zongbiao%Song%NULL%1,                     Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                     Jianghui%Cao%NULL%1,                     Xiaolong%Zhang%NULL%1,                     Guangzhi%Liu%NULL%1,                     Xiaxia%Wu%NULL%1,                     Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%1,             Bin%Lin%xref no email%1,             Adam%Bernheim%xref no email%1,             Michael%Chung%xref no email%1,             Yuantong%Gao%xref no email%1,             Zongyu%Xie%xref no email%1,             Tongtong%Zhao%xref no email%1,             Junli%Xia%xref no email%1,             Xueyan%Mei%xref no email%1,             Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                     H.%Wen%NULL%1,                     D.%Rong%NULL%1,                     Z.%Zhou%NULL%1,                     H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                     Dan%Xu%NULL%0,                     Dan%Xu%NULL%0,                     Chen%Xia%NULL%2,                     Chen%Xia%NULL%0,                     Shaokang%Wang%NULL%2,                     Shaokang%Wang%NULL%0,                     Minhua%Yu%NULL%2,                     Minhua%Yu%NULL%0,                     Haibo%Xu%NULL%0,                     Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                     Iraj%Sedighi%NULL%1,                     Zohreh%Shalchi%NULL%1,                     Ghazal%Sami%NULL%1,                     Borhan%Moradveisi%NULL%1,                     Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1113,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1118,7 +1142,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -1147,7 +1171,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1176,7 +1200,7 @@
         <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1205,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1234,7 +1258,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -1263,7 +1287,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1292,7 +1316,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="262">
   <si>
     <t>Doi</t>
   </si>
@@ -780,6 +780,120 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,                     Iraj%Sedighi%NULL%1,                     Zohreh%Shalchi%NULL%1,                     Ghazal%Sami%NULL%1,                     Borhan%Moradveisi%NULL%1,                     Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                      Junhua%Li%m13797631535@163.com%1,                      Ning%Zou%xdzning0215@163.com%1,                      Wenhe%Guan%guanwenhe@126.com%1,                      Jiali%Pan%cmu107819@163.com%1,                      Wei%Xu%tomxu.123@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                      Jian%Wang%NULL%0,                      Rui%Huang%NULL%1,                      Longgen%Liu%NULL%1,                      Haiyan%Zhao%NULL%1,                      Chao%Wu%dr.wu@nju.edu.cn%0,                      Chuanwu%Zhu%zhuchw@126.com%2,                      Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                      Zongbiao%Song%NULL%1,                      Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                      Jianghui%Cao%NULL%1,                      Xiaolong%Zhang%NULL%1,                      Guangzhi%Liu%NULL%1,                      Xiaxia%Wu%NULL%1,                      Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Sharon%Steinberger%xref no email%0, Bin%Lin%xref no email%1, Adam%Bernheim%xref no email%0, Michael%Chung%xref no email%0, Yuantong%Gao%xref no email%1, Zongyu%Xie%xref no email%1, Tongtong%Zhao%xref no email%1, Junli%Xia%xref no email%1, Xueyan%Mei%xref no email%1, Brent P.%Little%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Roentgen Ray Society</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                      H.%Wen%NULL%1,                      D.%Rong%NULL%1,                      Z.%Zhou%NULL%1,                      H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%2,                      Dan%Xu%NULL%0,                      Dan%Xu%NULL%0,                      Chen%Xia%NULL%2,                      Chen%Xia%NULL%0,                      Shaokang%Wang%NULL%2,                      Shaokang%Wang%NULL%0,                      Minhua%Yu%NULL%2,                      Minhua%Yu%NULL%0,                      Haibo%Xu%NULL%0,                      Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                      Iraj%Sedighi%NULL%1,                      Zohreh%Shalchi%NULL%1,                      Ghazal%Sami%NULL%1,                      Borhan%Moradveisi%NULL%1,                      Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                       Junhua%Li%m13797631535@163.com%1,                       Ning%Zou%xdzning0215@163.com%1,                       Wenhe%Guan%guanwenhe@126.com%1,                       Jiali%Pan%cmu107819@163.com%1,                       Wei%Xu%tomxu.123@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                       Jian%Wang%NULL%0,                       Rui%Huang%NULL%1,                       Longgen%Liu%NULL%1,                       Haiyan%Zhao%NULL%1,                       Chao%Wu%dr.wu@nju.edu.cn%0,                       Chuanwu%Zhu%zhuchw@126.com%2,                       Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                       Zongbiao%Song%NULL%1,                       Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                       Jianghui%Cao%NULL%1,                       Xiaolong%Zhang%NULL%1,                       Guangzhi%Liu%NULL%1,                       Xiaxia%Wu%NULL%1,                       Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                       H.%Wen%NULL%1,                       D.%Rong%NULL%1,                       Z.%Zhou%NULL%1,                       H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                       Dan%Xu%NULL%0,                       Dan%Xu%NULL%0,                       Chen%Xia%NULL%2,                       Chen%Xia%NULL%0,                       Shaokang%Wang%NULL%2,                       Shaokang%Wang%NULL%0,                       Minhua%Yu%NULL%2,                       Minhua%Yu%NULL%0,                       Haibo%Xu%NULL%0,                       Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                       Iraj%Sedighi%NULL%1,                       Zohreh%Shalchi%NULL%1,                       Ghazal%Sami%NULL%1,                       Borhan%Moradveisi%NULL%1,                       Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                        Junhua%Li%m13797631535@163.com%1,                        Ning%Zou%xdzning0215@163.com%1,                        Wenhe%Guan%guanwenhe@126.com%1,                        Jiali%Pan%cmu107819@163.com%1,                        Wei%Xu%tomxu.123@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                        Jian%Wang%NULL%0,                        Rui%Huang%NULL%1,                        Longgen%Liu%NULL%1,                        Haiyan%Zhao%NULL%1,                        Chao%Wu%dr.wu@nju.edu.cn%0,                        Chuanwu%Zhu%zhuchw@126.com%2,                        Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                        Zongbiao%Song%NULL%1,                        Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                        Jianghui%Cao%NULL%1,                        Xiaolong%Zhang%NULL%1,                        Guangzhi%Liu%NULL%1,                        Xiaxia%Wu%NULL%1,                        Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                        H.%Wen%NULL%1,                        D.%Rong%NULL%1,                        Z.%Zhou%NULL%1,                        H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                        Dan%Xu%NULL%0,                        Dan%Xu%NULL%0,                        Chen%Xia%NULL%2,                        Chen%Xia%NULL%0,                        Shaokang%Wang%NULL%2,                        Shaokang%Wang%NULL%0,                        Minhua%Yu%NULL%2,                        Minhua%Yu%NULL%0,                        Haibo%Xu%NULL%0,                        Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                        Iraj%Sedighi%NULL%1,                        Zohreh%Shalchi%NULL%1,                        Ghazal%Sami%NULL%1,                        Borhan%Moradveisi%NULL%1,                        Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                         Junhua%Li%m13797631535@163.com%1,                         Ning%Zou%xdzning0215@163.com%1,                         Wenhe%Guan%guanwenhe@126.com%1,                         Jiali%Pan%cmu107819@163.com%1,                         Wei%Xu%tomxu.123@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                         Jian%Wang%NULL%0,                         Rui%Huang%NULL%1,                         Longgen%Liu%NULL%1,                         Haiyan%Zhao%NULL%1,                         Chao%Wu%dr.wu@nju.edu.cn%0,                         Chuanwu%Zhu%zhuchw@126.com%2,                         Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                         Zongbiao%Song%NULL%1,                         Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                         Jianghui%Cao%NULL%1,                         Xiaolong%Zhang%NULL%1,                         Guangzhi%Liu%NULL%1,                         Xiaxia%Wu%NULL%1,                         Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                         H.%Wen%NULL%1,                         D.%Rong%NULL%1,                         Z.%Zhou%NULL%1,                         H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                         Dan%Xu%NULL%0,                         Dan%Xu%NULL%0,                         Chen%Xia%NULL%2,                         Chen%Xia%NULL%0,                         Shaokang%Wang%NULL%2,                         Shaokang%Wang%NULL%0,                         Minhua%Yu%NULL%2,                         Minhua%Yu%NULL%0,                         Haibo%Xu%NULL%0,                         Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                         Iraj%Sedighi%NULL%1,                         Zohreh%Shalchi%NULL%1,                         Ghazal%Sami%NULL%1,                         Borhan%Moradveisi%NULL%1,                         Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                          Junhua%Li%m13797631535@163.com%1,                          Ning%Zou%xdzning0215@163.com%1,                          Wenhe%Guan%guanwenhe@126.com%1,                          Jiali%Pan%cmu107819@163.com%1,                          Wei%Xu%tomxu.123@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                          Jian%Wang%NULL%0,                          Rui%Huang%NULL%1,                          Longgen%Liu%NULL%1,                          Haiyan%Zhao%NULL%1,                          Chao%Wu%dr.wu@nju.edu.cn%0,                          Chuanwu%Zhu%zhuchw@126.com%2,                          Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                          Zongbiao%Song%NULL%1,                          Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                          Jianghui%Cao%NULL%1,                          Xiaolong%Zhang%NULL%1,                          Guangzhi%Liu%NULL%1,                          Xiaxia%Wu%NULL%1,                          Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                          H.%Wen%NULL%1,                          D.%Rong%NULL%1,                          Z.%Zhou%NULL%1,                          H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                          Dan%Xu%NULL%0,                          Dan%Xu%NULL%0,                          Chen%Xia%NULL%2,                          Chen%Xia%NULL%0,                          Shaokang%Wang%NULL%2,                          Shaokang%Wang%NULL%0,                          Minhua%Yu%NULL%2,                          Minhua%Yu%NULL%0,                          Haibo%Xu%NULL%0,                          Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                          Iraj%Sedighi%NULL%1,                          Zohreh%Shalchi%NULL%1,                          Ghazal%Sami%NULL%1,                          Borhan%Moradveisi%NULL%1,                          Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1098,6 +1212,9 @@
       <c r="I1" t="s">
         <v>79</v>
       </c>
+      <c r="J1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1113,7 +1230,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1126,6 +1243,9 @@
       </c>
       <c r="I2" t="s">
         <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -1142,7 +1262,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -1155,6 +1275,9 @@
       </c>
       <c r="I3" t="s">
         <v>207</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -1171,7 +1294,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1184,6 +1307,9 @@
       </c>
       <c r="I4" t="s">
         <v>207</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -1200,7 +1326,7 @@
         <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1213,6 +1339,9 @@
       </c>
       <c r="I5" t="s">
         <v>210</v>
+      </c>
+      <c r="J5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -1229,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1241,7 +1370,10 @@
         <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>212</v>
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -1258,7 +1390,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -1271,6 +1403,9 @@
       </c>
       <c r="I7" t="s">
         <v>205</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1287,7 +1422,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1300,6 +1435,9 @@
       </c>
       <c r="I8" t="s">
         <v>207</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -1316,7 +1454,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1329,6 +1467,9 @@
       </c>
       <c r="I9" t="s">
         <v>207</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/109.xlsx
+++ b/Covid_19_Dataset_and_References/References/109.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="276">
   <si>
     <t>Doi</t>
   </si>
@@ -894,6 +894,48 @@
   </si>
   <si>
     <t>[Jafar%Soltani%NULL%1,                          Iraj%Sedighi%NULL%1,                          Zohreh%Shalchi%NULL%1,                          Ghazal%Sami%NULL%1,                          Borhan%Moradveisi%NULL%1,                          Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                           Junhua%Li%m13797631535@163.com%1,                           Ning%Zou%xdzning0215@163.com%1,                           Wenhe%Guan%guanwenhe@126.com%1,                           Jiali%Pan%cmu107819@163.com%1,                           Wei%Xu%tomxu.123@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                           Jian%Wang%NULL%0,                           Rui%Huang%NULL%1,                           Longgen%Liu%NULL%1,                           Haiyan%Zhao%NULL%1,                           Chao%Wu%dr.wu@nju.edu.cn%0,                           Chuanwu%Zhu%zhuchw@126.com%2,                           Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                           Zongbiao%Song%NULL%1,                           Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                           Jianghui%Cao%NULL%1,                           Xiaolong%Zhang%NULL%1,                           Guangzhi%Liu%NULL%1,                           Xiaxia%Wu%NULL%1,                           Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                           H.%Wen%NULL%1,                           D.%Rong%NULL%1,                           Z.%Zhou%NULL%1,                           H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                           Dan%Xu%NULL%0,                           Dan%Xu%NULL%0,                           Chen%Xia%NULL%2,                           Chen%Xia%NULL%0,                           Shaokang%Wang%NULL%2,                           Shaokang%Wang%NULL%0,                           Minhua%Yu%NULL%2,                           Minhua%Yu%NULL%0,                           Haibo%Xu%NULL%0,                           Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                           Iraj%Sedighi%NULL%1,                           Zohreh%Shalchi%NULL%1,                           Ghazal%Sami%NULL%1,                           Borhan%Moradveisi%NULL%1,                           Soheila%Nahidi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wenliang%Song%songwl2002jason@163.com%1,                            Junhua%Li%m13797631535@163.com%1,                            Ning%Zou%xdzning0215@163.com%1,                            Wenhe%Guan%guanwenhe@126.com%1,                            Jiali%Pan%cmu107819@163.com%1,                            Wei%Xu%tomxu.123@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Li%Zhu%NULL%1,                            Jian%Wang%NULL%0,                            Rui%Huang%NULL%1,                            Longgen%Liu%NULL%1,                            Haiyan%Zhao%NULL%1,                            Chao%Wu%dr.wu@nju.edu.cn%0,                            Chuanwu%Zhu%zhuchw@126.com%2,                            Chuanwu%Zhu%zhuchw@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mengqi%Liu%NULL%1,                            Zongbiao%Song%NULL%1,                            Kaihu%Xiao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0,                            Jianghui%Cao%NULL%1,                            Xiaolong%Zhang%NULL%1,                            Guangzhi%Liu%NULL%1,                            Xiaxia%Wu%NULL%1,                            Baolin%Wu%WBLlin0129@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Y.%Lu%NULL%1,                            H.%Wen%NULL%1,                            D.%Rong%NULL%1,                            Z.%Zhou%NULL%1,                            H.%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lan%Lan%NULL%1,                            Dan%Xu%NULL%0,                            Dan%Xu%NULL%0,                            Chen%Xia%NULL%2,                            Chen%Xia%NULL%0,                            Shaokang%Wang%NULL%2,                            Shaokang%Wang%NULL%0,                            Minhua%Yu%NULL%2,                            Minhua%Yu%NULL%0,                            Haibo%Xu%NULL%0,                            Haibo%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jafar%Soltani%NULL%1,                            Iraj%Sedighi%NULL%1,                            Zohreh%Shalchi%NULL%1,                            Ghazal%Sami%NULL%1,                            Borhan%Moradveisi%NULL%1,                            Soheila%Nahidi%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1272,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1262,7 +1304,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
@@ -1294,7 +1336,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
@@ -1326,7 +1368,7 @@
         <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1358,7 +1400,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1390,7 +1432,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
@@ -1422,7 +1464,7 @@
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1454,7 +1496,7 @@
         <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
